--- a/REGULAR/ONT/SEDUCON, ESTELITO.xlsx
+++ b/REGULAR/ONT/SEDUCON, ESTELITO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="202">
   <si>
     <t>PERIOD</t>
   </si>
@@ -637,6 +637,9 @@
   </si>
   <si>
     <t>UT(0-0-16)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -3037,7 +3040,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K453" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K454" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3415,12 +3418,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K453"/>
+  <dimension ref="A2:K454"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A393" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F403" sqref="F403"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="3900" topLeftCell="A415" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="K428" sqref="K428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3583,7 +3586,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.70400000000001</v>
+        <v>137.45400000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3593,7 +3596,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>427.75</v>
+        <v>435.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12670,15 +12673,17 @@
       <c r="B421" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C421" s="13"/>
+      <c r="C421" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D421" s="39">
         <v>10</v>
       </c>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G421" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H421" s="39"/>
       <c r="I421" s="9"/>
@@ -12692,13 +12697,15 @@
         <v>45078</v>
       </c>
       <c r="B422" s="20"/>
-      <c r="C422" s="13"/>
+      <c r="C422" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D422" s="39"/>
       <c r="E422" s="9"/>
       <c r="F422" s="20"/>
-      <c r="G422" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G422" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H422" s="39"/>
       <c r="I422" s="9"/>
@@ -12710,13 +12717,15 @@
         <v>45108</v>
       </c>
       <c r="B423" s="20"/>
-      <c r="C423" s="13"/>
+      <c r="C423" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D423" s="39"/>
       <c r="E423" s="9"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G423" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H423" s="39"/>
       <c r="I423" s="9"/>
@@ -12728,13 +12737,15 @@
         <v>45139</v>
       </c>
       <c r="B424" s="20"/>
-      <c r="C424" s="13"/>
+      <c r="C424" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D424" s="39"/>
       <c r="E424" s="9"/>
       <c r="F424" s="20"/>
-      <c r="G424" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G424" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H424" s="39"/>
       <c r="I424" s="9"/>
@@ -12746,13 +12757,15 @@
         <v>45170</v>
       </c>
       <c r="B425" s="20"/>
-      <c r="C425" s="13"/>
+      <c r="C425" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D425" s="39"/>
       <c r="E425" s="9"/>
       <c r="F425" s="20"/>
-      <c r="G425" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G425" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H425" s="39"/>
       <c r="I425" s="9"/>
@@ -12764,13 +12777,15 @@
         <v>45200</v>
       </c>
       <c r="B426" s="20"/>
-      <c r="C426" s="13"/>
+      <c r="C426" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D426" s="39"/>
       <c r="E426" s="9"/>
       <c r="F426" s="20"/>
-      <c r="G426" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G426" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H426" s="39"/>
       <c r="I426" s="9"/>
@@ -12782,13 +12797,15 @@
         <v>45231</v>
       </c>
       <c r="B427" s="20"/>
-      <c r="C427" s="13"/>
+      <c r="C427" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D427" s="39"/>
       <c r="E427" s="9"/>
       <c r="F427" s="20"/>
-      <c r="G427" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G427" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H427" s="39"/>
       <c r="I427" s="9"/>
@@ -12799,7 +12816,9 @@
       <c r="A428" s="40">
         <v>45261</v>
       </c>
-      <c r="B428" s="20"/>
+      <c r="B428" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C428" s="13"/>
       <c r="D428" s="39"/>
       <c r="E428" s="9"/>
@@ -12808,14 +12827,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H428" s="39"/>
+      <c r="H428" s="39">
+        <v>1</v>
+      </c>
       <c r="I428" s="9"/>
       <c r="J428" s="11"/>
-      <c r="K428" s="20"/>
+      <c r="K428" s="49">
+        <v>45271</v>
+      </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="40">
-        <v>45292</v>
+      <c r="A429" s="47" t="s">
+        <v>201</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -12833,7 +12856,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -12851,7 +12874,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -12869,7 +12892,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -12887,7 +12910,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -12905,7 +12928,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -12923,7 +12946,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -12941,7 +12964,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -12959,7 +12982,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -12977,7 +13000,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -12995,7 +13018,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -13013,7 +13036,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -13031,7 +13054,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -13049,7 +13072,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -13067,7 +13090,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -13085,7 +13108,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -13103,7 +13126,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -13121,7 +13144,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -13139,7 +13162,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -13157,7 +13180,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -13175,7 +13198,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -13193,7 +13216,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -13211,7 +13234,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -13229,7 +13252,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -13247,7 +13270,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -13262,6 +13285,24 @@
       <c r="I453" s="9"/>
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A454" s="40">
+        <v>46023</v>
+      </c>
+      <c r="B454" s="20"/>
+      <c r="C454" s="13"/>
+      <c r="D454" s="39"/>
+      <c r="E454" s="9"/>
+      <c r="F454" s="20"/>
+      <c r="G454" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H454" s="39"/>
+      <c r="I454" s="9"/>
+      <c r="J454" s="11"/>
+      <c r="K454" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
